--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3500386.643795226</v>
+        <v>3498134.564084018</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>131.9577048658553</v>
+        <v>103.9069048230597</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734071385</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,19 +817,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>79.4025220533179</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>13.02719212039518</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78.78083674901936</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>127.450398726549</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>63.727034246407</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>36.44558365834083</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>55.17585209939403</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>71.67037196991727</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>15.42290135054921</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710057</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>18.7084378797726</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>178.2642147042091</v>
       </c>
     </row>
     <row r="23">
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>117.4765410832882</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>60.78102717027922</v>
       </c>
       <c r="D31" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>126.9263824507425</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3904,19 +3904,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>127.606543552313</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573447</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.509627919557</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>1698.509627919557</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D2" t="n">
-        <v>1340.243929312807</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="E2" t="n">
-        <v>954.4556767145625</v>
+        <v>926.121535257193</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389511</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912086</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794322</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450751</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180637</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919557</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919557</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486466</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962569</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609169</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>443.0505103572855</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
         <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4492,46 +4492,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1914.135768168901</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>1624.71859813194</v>
+        <v>845.4915543310553</v>
       </c>
       <c r="X4" t="n">
-        <v>1396.729047233923</v>
+        <v>845.4915543310553</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.936468090393</v>
+        <v>624.6989751875252</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>552.807938939214</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450752</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450752</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2424.744041450752</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,13 +4659,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>912.4415581410479</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>743.5053752131411</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>593.3887358008053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>445.4756422184122</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>298.5856947205018</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>130.8828580952208</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214135</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008248</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971288</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>1094.090022971288</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y7" t="n">
-        <v>1094.090022971288</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>512.2748146547618</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678284</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3288.792100742159</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3082.814353126381</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3082.814353126381</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2751.75146578281</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2016.242202241858</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1626.102870266046</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1854.900232967364</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5030,10 +5030,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192548</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561141</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,34 +5413,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5653,19 +5653,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,13 +6002,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2387.388512467613</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,19 +6221,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6151975578602</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578602</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6923,25 +6923,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>366.9636532421613</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,16 +7251,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7591,28 +7591,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1559.490355317017</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1042.083634382039</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="44">
@@ -7625,61 +7625,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.738725912720952e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>38.1389282762425</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,13 +23422,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>36.41624546988356</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431587</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
     </row>
     <row r="23">
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>31.13893193492417</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.4657939283486</v>
       </c>
       <c r="D31" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>35.40333084624521</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>19.50758019582666</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>124.531099771515</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>45.44677382459261</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>688948.395473268</v>
+        <v>688948.3954732679</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794891</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794891</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794891</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794891</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="F2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132555</v>
       </c>
       <c r="M2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="N2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="O2" t="n">
-        <v>746610.6047132555</v>
-      </c>
       <c r="P2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26366,28 +26366,28 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.9549531696</v>
+        <v>91573.95495316946</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316951</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316946</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181821</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181823</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181811</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181812</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181811</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181811</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181814</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181808</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-768789.0041176921</v>
+        <v>-768789.0041176928</v>
       </c>
       <c r="C6" t="n">
         <v>559955.7416098996</v>
       </c>
       <c r="D6" t="n">
-        <v>559955.7416098993</v>
+        <v>559955.7416098997</v>
       </c>
       <c r="E6" t="n">
-        <v>307688.6929001749</v>
+        <v>307653.9549747392</v>
       </c>
       <c r="F6" t="n">
-        <v>633101.1547075303</v>
+        <v>633066.4167820945</v>
       </c>
       <c r="G6" t="n">
-        <v>633101.1547075303</v>
+        <v>633066.416782094</v>
       </c>
       <c r="H6" t="n">
-        <v>633101.1547075304</v>
+        <v>633066.4167820942</v>
       </c>
       <c r="I6" t="n">
-        <v>633101.1547075303</v>
+        <v>633066.4167820943</v>
       </c>
       <c r="J6" t="n">
-        <v>415569.9523102529</v>
+        <v>415535.2143848168</v>
       </c>
       <c r="K6" t="n">
-        <v>633101.1547075302</v>
+        <v>633066.4167820944</v>
       </c>
       <c r="L6" t="n">
-        <v>633101.1547075304</v>
+        <v>633066.4167820946</v>
       </c>
       <c r="M6" t="n">
-        <v>548046.1267720184</v>
+        <v>548011.388846583</v>
       </c>
       <c r="N6" t="n">
-        <v>633101.1547075302</v>
+        <v>633066.4167820943</v>
       </c>
       <c r="O6" t="n">
-        <v>633101.1547075302</v>
+        <v>633066.4167820944</v>
       </c>
       <c r="P6" t="n">
-        <v>633101.1547075305</v>
+        <v>633066.4167820944</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26826,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26960,10 +26960,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>274.9183408758561</v>
+        <v>302.9691409186518</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27537,19 +27537,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>87.84429904530994</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>239.1104512034328</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>303.9530049144612</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>254.4799713457128</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>81.02798066791378</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>72.742178129835</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>314.555248579075</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>147.8785773062519</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>271.1000969860418</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-2.740183841666113e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,10 +30472,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,37 +31118,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31157,7 +31157,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31206,16 +31206,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31224,19 +31224,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,13 +31835,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060511</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>322.758125133299</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32549,16 +32549,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,7 +32567,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>307.3280120589129</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462889</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719501</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045844</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,16 +34208,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>173.3851399586643</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34226,7 +34226,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.5996128485291</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>227.8611086463986</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>120.5443928316921</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>180.6240912112806</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,7 +36215,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36364,7 +36364,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193518</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>167.3462379728913</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629557</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499318</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212511</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>31.25110603664601</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -37874,7 +37874,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625076</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315785</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>90.0196696720396</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
